--- a/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_universitaire_de_Limoges/Centre_hospitalier_universitaire_de_Limoges.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Centre_hospitalier_universitaire_de_Limoges/Centre_hospitalier_universitaire_de_Limoges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier universitaire de Limoges est un établissement public de santé du Limousin, le plus important de la région, fondé le 30 avril 1974, relié à l'université de Limoges (faculté de médecine et de pharmacie).
-Il emploie plus de 4 000 personnes, ce qui en fait en 2013 le premier employeur de la Haute-Vienne et le quatrième de Nouvelle-Aquitaine[1].
+Il emploie plus de 4 000 personnes, ce qui en fait en 2013 le premier employeur de la Haute-Vienne et le quatrième de Nouvelle-Aquitaine.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La construction d'un hôpital était envisagée en 1955, prévoyant ainsi de combler la situation de l'hôpital général qui était rapidement devenu vétuste et saturé[2].
-Une 1re convention est signée entre l'Université de Limoges et l'Hôpital le 30 avril 1974, marquant ainsi la naissance du CHU de Limoges[3].
-L'inauguration du 1er hôpital universitaire de la ville fut de dimension nationale car y prirent part lors de son inauguration le 9 janvier 1976[2], le premier ministre de l'époque, Jacques Chirac, la ministre de la Santé Simone Veil et le maire de Limoges Louis Longequeue.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La construction d'un hôpital était envisagée en 1955, prévoyant ainsi de combler la situation de l'hôpital général qui était rapidement devenu vétuste et saturé.
+Une 1re convention est signée entre l'Université de Limoges et l'Hôpital le 30 avril 1974, marquant ainsi la naissance du CHU de Limoges.
+L'inauguration du 1er hôpital universitaire de la ville fut de dimension nationale car y prirent part lors de son inauguration le 9 janvier 1976, le premier ministre de l'époque, Jacques Chirac, la ministre de la Santé Simone Veil et le maire de Limoges Louis Longequeue.</t>
         </is>
       </c>
     </row>
@@ -547,14 +561,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Les différents services
-Outre l'hôpital universitaire Dupuytren proprement dit, le CHU de Limoges comprend l'hôpital Jean-Rebeyrol (gérontologie, médecine physique, réadaptation, odontologie), l'hôpital Le-Cluzeau (maladies respiratoires et métaboliques), l'hôpital de la Mère et de l'Enfant ainsi l'EHPAD Dr -Chastaingt.
-Le 18 mars 2019, le CHU Dupuytren-2 ouvre ses portes[4]. Pensé et dessiné par le cabinet Michel Beauvais Associés (MBA), il s'agit d'un bâtiment de haute qualité environnementale (HQE), de 26 000 m², et 334 lits et places, avec 90 % de chambres simples répartis sur 5 niveaux. Les activités de consultations sont regroupées au rez-de-chaussée et sur une partie du 1er étage. Il dispose également de 70 places de stationnement au niveau -1 et de 115 places extérieures sur le parking « Marcland ».
+          <t>Les différents services</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre l'hôpital universitaire Dupuytren proprement dit, le CHU de Limoges comprend l'hôpital Jean-Rebeyrol (gérontologie, médecine physique, réadaptation, odontologie), l'hôpital Le-Cluzeau (maladies respiratoires et métaboliques), l'hôpital de la Mère et de l'Enfant ainsi l'EHPAD Dr -Chastaingt.
+Le 18 mars 2019, le CHU Dupuytren-2 ouvre ses portes. Pensé et dessiné par le cabinet Michel Beauvais Associés (MBA), il s'agit d'un bâtiment de haute qualité environnementale (HQE), de 26 000 m², et 334 lits et places, avec 90 % de chambres simples répartis sur 5 niveaux. Les activités de consultations sont regroupées au rez-de-chaussée et sur une partie du 1er étage. Il dispose également de 70 places de stationnement au niveau -1 et de 115 places extérieures sur le parking « Marcland ».
 	Bâtiments du CHU de Limoges
 			l'hôpital Dupuytren-2
 			L'EHPAD Dr-Chastaingt
-Écoles
-9 écoles font partie du CHU :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_de_Limoges</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_de_Limoges</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Activités médicales et enseignement</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écoles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>9 écoles font partie du CHU :
 L'institut de formation d'aides-soignants (IFAS)
 L'institut de formation en soins infirmiers (IFSI)
 École d'infirmiers anesthésistes
@@ -568,31 +622,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Centre_hospitalier_universitaire_de_Limoges</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_de_Limoges</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses bâtiments sont desservis par les lignes 10, 12 et 14 de la STCL à l'arrêt « Dr-Marcland » ainsi qu'à l'arrêt « C.H.U. Dupuytren », desservi par la ligne 10.
 </t>
